--- a/Clean-100.xlsx
+++ b/Clean-100.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.717829018514155E-07</v>
+        <v>6.613537095471486E-08</v>
       </c>
       <c r="D2">
-        <v>9.842435268596165E-06</v>
+        <v>3.789277632237251E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>1.397082264460557E-07</v>
+        <v>5.397543412497152E-08</v>
       </c>
       <c r="D3">
-        <v>8.004691738616984E-06</v>
+        <v>3.092564572747268E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>1.090669146906889E-07</v>
+        <v>4.234482321165836E-08</v>
       </c>
       <c r="D4">
-        <v>6.249073896289868E-06</v>
+        <v>2.426179654255628E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>6.578687388731741E-08</v>
+        <v>2.589016228956301E-08</v>
       </c>
       <c r="D5">
-        <v>3.769310221102691E-06</v>
+        <v>1.483397030100721E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>6.896762555068945E-09</v>
+        <v>3.42824747345279E-09</v>
       </c>
       <c r="D6">
-        <v>3.951553867093125E-07</v>
+        <v>1.964241113552326E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-6.789057136572809E-08</v>
+        <v>-2.526786085913142E-08</v>
       </c>
       <c r="D7">
-        <v>-3.889843207987937E-06</v>
+        <v>-1.447741784552036E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-1.48833792016224E-07</v>
+        <v>-5.675434321561913E-08</v>
       </c>
       <c r="D8">
-        <v>-8.527548131457522E-06</v>
+        <v>-3.251784335291913E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-1.941539241877592E-07</v>
+        <v>-7.496220292624919E-08</v>
       </c>
       <c r="D9">
-        <v>-1.112420043186155E-05</v>
+        <v>-4.295017850677308E-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-2.036472410669467E-07</v>
+        <v>-7.96222295592155E-08</v>
       </c>
       <c r="D10">
-        <v>-1.16681274226193E-05</v>
+        <v>-4.562017709164837E-06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-1.770227043493278E-07</v>
+        <v>-7.029786565777548E-08</v>
       </c>
       <c r="D11">
-        <v>-1.014265383720864E-05</v>
+        <v>-4.027771010968185E-06</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-1.138465253114817E-07</v>
+        <v>-4.643763887600448E-08</v>
       </c>
       <c r="D12">
-        <v>-6.522925412577203E-06</v>
+        <v>-2.660680718147693E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-1.359206627143169E-08</v>
+        <v>-7.297901104394086E-09</v>
       </c>
       <c r="D13">
-        <v>-7.787680322151531E-07</v>
+        <v>-4.181389325856436E-07</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>1.243864945067556E-07</v>
+        <v>4.802656726672107E-08</v>
       </c>
       <c r="D14">
-        <v>7.126821163664296E-06</v>
+        <v>2.751719608884267E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>3.013586506308641E-07</v>
+        <v>1.208394368768266E-07</v>
       </c>
       <c r="D15">
-        <v>1.7266578800906E-05</v>
+        <v>6.923589731779685E-06</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>5.180339689638425E-07</v>
+        <v>2.123399665056617E-07</v>
       </c>
       <c r="D16">
-        <v>2.968116006603925E-05</v>
+        <v>1.216618390272368E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>7.794654410735007E-07</v>
+        <v>3.260146140770213E-07</v>
       </c>
       <c r="D17">
-        <v>4.466008004981475E-05</v>
+        <v>1.867926144619964E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>9.813521465063414E-07</v>
+        <v>4.211553077247037E-07</v>
       </c>
       <c r="D18">
-        <v>5.622733621091739E-05</v>
+        <v>2.413042165215896E-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>1.203378702615459E-06</v>
+        <v>5.261330960666536E-07</v>
       </c>
       <c r="D19">
-        <v>6.894852081579437E-05</v>
+        <v>3.014520586677034E-05</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>1.565283999125679E-06</v>
+        <v>6.979449661294584E-07</v>
       </c>
       <c r="D20">
-        <v>8.968416688926063E-05</v>
+        <v>3.998930089161916E-05</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>2.172466946667034E-06</v>
+        <v>9.878255047437003E-07</v>
       </c>
       <c r="D21">
-        <v>0.0001244731871756936</v>
+        <v>5.659823231719431E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>1.495082745806313E-06</v>
+      </c>
+      <c r="D22">
+        <v>8.566193135753219E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>2.209635076987396E-06</v>
+      </c>
+      <c r="D23">
+        <v>0.0001266027641754425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>3.050789070655163E-06</v>
+      </c>
+      <c r="D24">
+        <v>0.0001747973379331795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>4.02372520863102E-06</v>
+      </c>
+      <c r="D25">
+        <v>0.0002305424723749541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>5.132465821249444E-06</v>
+      </c>
+      <c r="D26">
+        <v>0.0002940686300527391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>5.431443741684425E-06</v>
+      </c>
+      <c r="D27">
+        <v>0.0003111988030612617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>5.896220770856267E-06</v>
+      </c>
+      <c r="D28">
+        <v>0.0003378285652474369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>6.630918252439671E-06</v>
+      </c>
+      <c r="D29">
+        <v>0.0003799236301610565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>2.445273985211913E-06</v>
+      </c>
+      <c r="D30">
+        <v>0.0001401038791057779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>-3.805430362240482E-06</v>
+      </c>
+      <c r="D31">
+        <v>-0.0002180350989873196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>-1.311562191422895E-05</v>
+      </c>
+      <c r="D32">
+        <v>-0.0007514697813746126</v>
       </c>
     </row>
   </sheetData>
